--- a/data/trans_orig/CoPsoQ_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>53219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41443</v>
+        <v>40914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64769</v>
+        <v>66014</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2995574939099697</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2332730684850835</v>
+        <v>0.2302925758569739</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.364567921400748</v>
+        <v>0.3715752101228425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -764,19 +764,19 @@
         <v>50364</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39081</v>
+        <v>39942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62379</v>
+        <v>61344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3787791564070026</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2939190339216285</v>
+        <v>0.3003934162879808</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4691406656951865</v>
+        <v>0.461357456414209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -785,19 +785,19 @@
         <v>103584</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>86115</v>
+        <v>87722</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120462</v>
+        <v>121453</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3334688859190981</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2772306869429492</v>
+        <v>0.2824058190643445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.387803875459457</v>
+        <v>0.3909945837809659</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>124441</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112891</v>
+        <v>111646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136217</v>
+        <v>136746</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7004425060900303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.635432078599252</v>
+        <v>0.6284247898771574</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7667269315149166</v>
+        <v>0.7697074241430261</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -835,19 +835,19 @@
         <v>82601</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70586</v>
+        <v>71621</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>93884</v>
+        <v>93023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6212208435929973</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5308593343048137</v>
+        <v>0.538642543585791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7060809660783719</v>
+        <v>0.6996065837120192</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>195</v>
@@ -856,19 +856,19 @@
         <v>207041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>190163</v>
+        <v>189172</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>224510</v>
+        <v>222903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6665311140809018</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6121961245405431</v>
+        <v>0.6090054162190338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7227693130570506</v>
+        <v>0.7175941809356554</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>210686</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183150</v>
+        <v>184616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>237837</v>
+        <v>239894</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2356834520131229</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.204880542296163</v>
+        <v>0.2065200655224753</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2660563594401674</v>
+        <v>0.2683567502173047</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>116</v>
@@ -981,19 +981,19 @@
         <v>124342</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>103773</v>
+        <v>104919</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143687</v>
+        <v>143833</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2206558443970766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1841555441397252</v>
+        <v>0.1861881554665706</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2549864467539544</v>
+        <v>0.2552447464491456</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>308</v>
@@ -1002,19 +1002,19 @@
         <v>335028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>299892</v>
+        <v>304856</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>369162</v>
+        <v>370743</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2298731508629096</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2057656888015354</v>
+        <v>0.2091711482203257</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2532938480672972</v>
+        <v>0.2543786837495797</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>683250</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>656099</v>
+        <v>654042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>710786</v>
+        <v>709320</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7643165479868771</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7339436405598326</v>
+        <v>0.7316432497826955</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.795119457703837</v>
+        <v>0.7934799344775249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>410</v>
@@ -1052,19 +1052,19 @@
         <v>439168</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>419823</v>
+        <v>419677</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459737</v>
+        <v>458591</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7793441556029234</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7450135532460456</v>
+        <v>0.7447552535508544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8158444558602748</v>
+        <v>0.813811844533429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1065</v>
@@ -1073,19 +1073,19 @@
         <v>1122418</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1088284</v>
+        <v>1086703</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1157554</v>
+        <v>1152590</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7701268491370904</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7467061519327024</v>
+        <v>0.7456213162504202</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7942343111984644</v>
+        <v>0.7908288517796741</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>48668</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35949</v>
+        <v>36289</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63705</v>
+        <v>65179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1548362331541144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1143695792028433</v>
+        <v>0.1154516361244903</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2026770077143543</v>
+        <v>0.2073666558947649</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1198,19 +1198,19 @@
         <v>43419</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30577</v>
+        <v>31989</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57688</v>
+        <v>57126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1900128655449056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1338137979103901</v>
+        <v>0.139994635108701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2524608426729429</v>
+        <v>0.2500031368657566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1219,19 +1219,19 @@
         <v>92086</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73731</v>
+        <v>74694</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>111789</v>
+        <v>110641</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.169643977455493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1358292171670142</v>
+        <v>0.1376037023548348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2059406507756327</v>
+        <v>0.203825376110152</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>265651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>250614</v>
+        <v>249140</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>278370</v>
+        <v>278030</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8451637668458856</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7973229922856457</v>
+        <v>0.7926333441052351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8856304207971567</v>
+        <v>0.8845483638755097</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>166</v>
@@ -1269,19 +1269,19 @@
         <v>185084</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170815</v>
+        <v>171377</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>197926</v>
+        <v>196514</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8099871344550944</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7475391573270571</v>
+        <v>0.7499968631342426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8661862020896098</v>
+        <v>0.8600053648912989</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>406</v>
@@ -1290,19 +1290,19 @@
         <v>450736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>431033</v>
+        <v>432181</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>469091</v>
+        <v>468128</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.830356022544507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7940593492243677</v>
+        <v>0.7961746238898484</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8641707828329861</v>
+        <v>0.8623962976451655</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>312573</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>283671</v>
+        <v>279705</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>349309</v>
+        <v>345082</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2255356443742493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2046814377925514</v>
+        <v>0.2018199175711558</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2520420886520174</v>
+        <v>0.2489918715373111</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>201</v>
@@ -1415,19 +1415,19 @@
         <v>218125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>193586</v>
+        <v>193564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243161</v>
+        <v>243061</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2358160427155067</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.209287263432721</v>
+        <v>0.2092632799427085</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2628830674101534</v>
+        <v>0.2627750785074418</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>488</v>
@@ -1436,19 +1436,19 @@
         <v>530698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>491255</v>
+        <v>489518</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>574556</v>
+        <v>572193</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2296505647759662</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2125823582385226</v>
+        <v>0.2118307115462754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2486293699008288</v>
+        <v>0.2476070142448845</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1073342</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1036606</v>
+        <v>1040833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1102244</v>
+        <v>1106210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7744643556257508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7479579113479825</v>
+        <v>0.7510081284626889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7953185622074485</v>
+        <v>0.7981800824288441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>652</v>
@@ -1486,19 +1486,19 @@
         <v>706853</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>681817</v>
+        <v>681917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>731392</v>
+        <v>731414</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7641839572844933</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7371169325898465</v>
+        <v>0.7372249214925581</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7907127365672789</v>
+        <v>0.7907367200572915</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1666</v>
@@ -1507,19 +1507,19 @@
         <v>1780195</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1736337</v>
+        <v>1738700</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1819638</v>
+        <v>1821375</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7703494352240339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7513706300991713</v>
+        <v>0.7523929857551155</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7874176417614773</v>
+        <v>0.7881692884537246</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>33083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23699</v>
+        <v>23869</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43699</v>
+        <v>43995</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2341372364321539</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1677249984603689</v>
+        <v>0.1689237120158008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3092639719104901</v>
+        <v>0.311358274689808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -1871,19 +1871,19 @@
         <v>20512</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13368</v>
+        <v>13959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29372</v>
+        <v>29405</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2967261311446256</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1933847366510291</v>
+        <v>0.2019229799464337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4248994141634865</v>
+        <v>0.4253766970239048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -1892,19 +1892,19 @@
         <v>53595</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40208</v>
+        <v>40937</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65509</v>
+        <v>66527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2546985771839971</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1910758073593173</v>
+        <v>0.1945439350275884</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3113164323375545</v>
+        <v>0.316150870727034</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>108216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97600</v>
+        <v>97304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117600</v>
+        <v>117430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7658627635678461</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6907360280895103</v>
+        <v>0.688641725310192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8322750015396314</v>
+        <v>0.8310762879841992</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -1942,19 +1942,19 @@
         <v>48616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39756</v>
+        <v>39723</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55760</v>
+        <v>55169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7032738688553744</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5751005858365136</v>
+        <v>0.5746233029760949</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.806615263348971</v>
+        <v>0.7980770200535661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -1963,19 +1963,19 @@
         <v>156832</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>144918</v>
+        <v>143900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>170219</v>
+        <v>169490</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.745301422816003</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6886835676624455</v>
+        <v>0.683849129272966</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8089241926406827</v>
+        <v>0.8054560649724116</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>205965</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>178396</v>
+        <v>182574</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231364</v>
+        <v>232111</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2230984751669416</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1932359378634344</v>
+        <v>0.197762350155539</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2506110200659297</v>
+        <v>0.2514195295731562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -2088,19 +2088,19 @@
         <v>141703</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120675</v>
+        <v>120993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>164945</v>
+        <v>163577</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2178227329646633</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1854990006892967</v>
+        <v>0.1859878396997197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2535500392792376</v>
+        <v>0.2514465363938925</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>334</v>
@@ -2109,19 +2109,19 @@
         <v>347668</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>316097</v>
+        <v>314811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>380956</v>
+        <v>386014</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2209176261911076</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2008565002053393</v>
+        <v>0.2000396754737453</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2420698205240596</v>
+        <v>0.2452834809025375</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>717236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>691837</v>
+        <v>691090</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>744805</v>
+        <v>740627</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7769015248330584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7493889799340698</v>
+        <v>0.7485804704268436</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8067640621365654</v>
+        <v>0.8022376498444609</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>496</v>
@@ -2159,19 +2159,19 @@
         <v>508840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>485598</v>
+        <v>486966</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>529868</v>
+        <v>529550</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7821772670353367</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7464499607207625</v>
+        <v>0.7485534636061076</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8145009993107033</v>
+        <v>0.8140121603002803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1165</v>
@@ -2180,19 +2180,19 @@
         <v>1226077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1192789</v>
+        <v>1187731</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1257648</v>
+        <v>1258934</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7790823738088924</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7579301794759403</v>
+        <v>0.7547165190974625</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7991434997946609</v>
+        <v>0.7999603245262547</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>78703</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64454</v>
+        <v>62809</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95824</v>
+        <v>96234</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2258734675157476</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1849791724572584</v>
+        <v>0.1802593240755485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2750114648063948</v>
+        <v>0.2761858087028408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -2305,19 +2305,19 @@
         <v>74418</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59589</v>
+        <v>60206</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89153</v>
+        <v>90126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2412605637802078</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1931869426966354</v>
+        <v>0.1951878942789923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2890312914519185</v>
+        <v>0.2921881610643619</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -2326,19 +2326,19 @@
         <v>153120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130666</v>
+        <v>131208</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174836</v>
+        <v>178940</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.233098710503071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.198915248118569</v>
+        <v>0.1997404310094728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.266156867958882</v>
+        <v>0.2724039098837536</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>269735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>252614</v>
+        <v>252204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283984</v>
+        <v>285629</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7741265324842524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7249885351936053</v>
+        <v>0.7238141912971592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8150208275427416</v>
+        <v>0.8197406759244515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -2376,19 +2376,19 @@
         <v>234035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>219300</v>
+        <v>218327</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248864</v>
+        <v>248247</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7587394362197922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7109687085480816</v>
+        <v>0.7078118389356381</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8068130573033646</v>
+        <v>0.8048121057210077</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>474</v>
@@ -2397,19 +2397,19 @@
         <v>503771</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>482055</v>
+        <v>477951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>526225</v>
+        <v>525683</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.766901289496929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7338431320411182</v>
+        <v>0.7275960901162466</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.801084751881431</v>
+        <v>0.8002595689905273</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>317751</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>287991</v>
+        <v>286913</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>351910</v>
+        <v>352575</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2248867183413354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2038245429593187</v>
+        <v>0.203061623227767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2490623277067265</v>
+        <v>0.2495329817246691</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>232</v>
@@ -2522,19 +2522,19 @@
         <v>236633</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207134</v>
+        <v>210608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>260344</v>
+        <v>264795</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2301596886049372</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2014675597347423</v>
+        <v>0.2048463438951109</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2532223862582365</v>
+        <v>0.2575514894889884</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>530</v>
@@ -2543,19 +2543,19 @@
         <v>554384</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>513041</v>
+        <v>511857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>598491</v>
+        <v>599237</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2271075836204836</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2101712401180721</v>
+        <v>0.2096861902722099</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2451762325773082</v>
+        <v>0.2454818852999024</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>1095187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1061028</v>
+        <v>1060363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1124947</v>
+        <v>1126025</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7751132816586646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7509376722932735</v>
+        <v>0.7504670182753309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7961754570406813</v>
+        <v>0.7969383767722329</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>772</v>
@@ -2593,19 +2593,19 @@
         <v>791492</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>767781</v>
+        <v>763330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>820991</v>
+        <v>817517</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7698403113950628</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7467776137417637</v>
+        <v>0.7424485105110117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7985324402652576</v>
+        <v>0.7951536561048892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1788</v>
@@ -2614,19 +2614,19 @@
         <v>1886679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1842572</v>
+        <v>1841826</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1928022</v>
+        <v>1929206</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7728924163795164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7548237674226917</v>
+        <v>0.7545181147000976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7898287598819279</v>
+        <v>0.7903138097277901</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>19863</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11736</v>
+        <v>11868</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28560</v>
+        <v>27586</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4859322786399261</v>
+        <v>0.4859322786399263</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2871215329465892</v>
+        <v>0.2903351175989232</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6986992755693837</v>
+        <v>0.6748741993078231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2978,19 +2978,19 @@
         <v>6014</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2740</v>
+        <v>2974</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9852</v>
+        <v>10162</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2661078716811295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.121259185483074</v>
+        <v>0.1315757913863224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4359401105454663</v>
+        <v>0.4496468278277702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2999,19 +2999,19 @@
         <v>25877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18355</v>
+        <v>17247</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35782</v>
+        <v>35868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4076671406168705</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2891667171321589</v>
+        <v>0.2717122185632829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5637018975030724</v>
+        <v>0.5650717159640496</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>21013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12316</v>
+        <v>13290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29140</v>
+        <v>29008</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5140677213600738</v>
+        <v>0.5140677213600739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3013007244306165</v>
+        <v>0.3251258006921769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7128784670534111</v>
+        <v>0.7096648824010767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -3049,19 +3049,19 @@
         <v>16586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12748</v>
+        <v>12438</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19860</v>
+        <v>19626</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7338921283188702</v>
+        <v>0.7338921283188703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5640598894545334</v>
+        <v>0.5503531721722293</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8787408145169261</v>
+        <v>0.8684242086136776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -3070,19 +3070,19 @@
         <v>37599</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27694</v>
+        <v>27608</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>45121</v>
+        <v>46229</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5923328593831294</v>
+        <v>0.5923328593831293</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4362981024969271</v>
+        <v>0.4349282840359503</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7108332828678412</v>
+        <v>0.7282877814367169</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>88437</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72081</v>
+        <v>70773</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107794</v>
+        <v>108324</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3026050128070498</v>
+        <v>0.3026050128070499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2466398507717594</v>
+        <v>0.2421638516842056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3688382187409037</v>
+        <v>0.3706507529908989</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -3195,19 +3195,19 @@
         <v>63697</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53134</v>
+        <v>52548</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77950</v>
+        <v>77828</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2573643387417521</v>
+        <v>0.257364338741752</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2146830208922482</v>
+        <v>0.2123164058923453</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3149490764792253</v>
+        <v>0.3144587239768634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>155</v>
@@ -3216,19 +3216,19 @@
         <v>152135</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132060</v>
+        <v>131475</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>176827</v>
+        <v>177632</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2818602753305176</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2446676545633219</v>
+        <v>0.2435832452954263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3276066140703482</v>
+        <v>0.3290979329136494</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>203816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>184459</v>
+        <v>183929</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220172</v>
+        <v>221480</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6973949871929501</v>
+        <v>0.6973949871929502</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6311617812590964</v>
+        <v>0.6293492470091011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7533601492282407</v>
+        <v>0.7578361483157943</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>236</v>
@@ -3266,19 +3266,19 @@
         <v>183802</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>169549</v>
+        <v>169671</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>194365</v>
+        <v>194951</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.742635661258248</v>
+        <v>0.7426356612582479</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6850509235207747</v>
+        <v>0.6855412760231367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7853169791077518</v>
+        <v>0.7876835941076548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>405</v>
@@ -3287,19 +3287,19 @@
         <v>387618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>362926</v>
+        <v>362121</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>407693</v>
+        <v>408278</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7181397246694824</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6723933859296523</v>
+        <v>0.6709020670863509</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7553323454366782</v>
+        <v>0.7564167547045738</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>46132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34131</v>
+        <v>35183</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59083</v>
+        <v>60142</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.334077914365902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2471699430199369</v>
+        <v>0.2547893155103307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4278679958517572</v>
+        <v>0.4355311297026448</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -3412,19 +3412,19 @@
         <v>45100</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36375</v>
+        <v>35822</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55816</v>
+        <v>55386</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3959799260264013</v>
+        <v>0.3959799260264012</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3193754454735616</v>
+        <v>0.3145174886978222</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4900717575224519</v>
+        <v>0.4862921569804665</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -3433,19 +3433,19 @@
         <v>91232</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74794</v>
+        <v>75257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107980</v>
+        <v>107733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3620571798643759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.296823154126176</v>
+        <v>0.2986595988814395</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4285238754211446</v>
+        <v>0.4275428216693627</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>91956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79005</v>
+        <v>77946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103957</v>
+        <v>102905</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6659220856340979</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5721320041482429</v>
+        <v>0.564468870297355</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7528300569800632</v>
+        <v>0.7452106844896692</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -3483,19 +3483,19 @@
         <v>68794</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58078</v>
+        <v>58508</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>77519</v>
+        <v>78072</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6040200739735987</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5099282424775482</v>
+        <v>0.5137078430195336</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6806245545264386</v>
+        <v>0.6854825113021779</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>165</v>
@@ -3504,19 +3504,19 @@
         <v>160750</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>144002</v>
+        <v>144249</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>177188</v>
+        <v>176725</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6379428201356241</v>
+        <v>0.6379428201356242</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5714761245788557</v>
+        <v>0.5724571783306374</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.703176845873824</v>
+        <v>0.7013404011185606</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>154432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131038</v>
+        <v>131267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178253</v>
+        <v>177966</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3277308218541784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2780832708885587</v>
+        <v>0.2785707558440085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3782820788396898</v>
+        <v>0.3776724581762587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -3629,19 +3629,19 @@
         <v>114811</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>269</v>
@@ -3650,19 +3650,19 @@
         <v>269244</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>237767</v>
+        <v>241763</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>300531</v>
+        <v>299010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3148273964821875</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2780213319420105</v>
+        <v>0.282694378855559</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3514119636645786</v>
+        <v>0.3496333964440726</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>316785</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>292964</v>
+        <v>293251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>340179</v>
+        <v>339950</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6722691781458217</v>
+        <v>0.6722691781458215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6217179211603101</v>
+        <v>0.6223275418237412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7219167291114412</v>
+        <v>0.7214292441559915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>350</v>
@@ -3700,19 +3700,19 @@
         <v>269181</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>251745</v>
+        <v>252528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>285392</v>
+        <v>285690</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7010070722802016</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6555990202845194</v>
+        <v>0.6576380462984657</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7432234532253618</v>
+        <v>0.7439991315377318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>611</v>
@@ -3721,19 +3721,19 @@
         <v>585966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>554679</v>
+        <v>556200</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>617443</v>
+        <v>613447</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6851726035178124</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6485880363354221</v>
+        <v>0.6503666035559273</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7219786680579899</v>
+        <v>0.7173056211444411</v>
       </c>
     </row>
     <row r="15">
